--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_5_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_5_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1377145.207890404</v>
+        <v>-1379530.029040534</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5927271.091497794</v>
+        <v>5927271.091497793</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>353.6433395210825</v>
+        <v>223.3394787564975</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>12.21912372077514</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -738,7 +738,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>172.7084989883149</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>267.8652389262795</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>176.0983952029197</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>349.1130694755767</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>5.231558583631597</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>189.0559928569232</v>
       </c>
     </row>
     <row r="8">
@@ -1133,13 +1133,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>291.7183297035302</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>107.6215151860412</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1148,7 +1148,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1190,7 +1190,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>46.36452066793949</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>99.90187484148905</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>317.9976822205904</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>317.1942106293718</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1531,10 +1531,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>149.1187276908262</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>83.36751100594854</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>111.0005814968322</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>198.322437798273</v>
       </c>
       <c r="T13" t="n">
         <v>221.6460300583344</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>69.95059120251301</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>88.23729397672409</v>
       </c>
       <c r="G16" t="n">
         <v>166.1396818493028</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>94.05232337457501</v>
       </c>
       <c r="S16" t="n">
         <v>191.7535314455906</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>220.0355000709787</v>
       </c>
       <c r="U16" t="n">
-        <v>222.4713055459277</v>
+        <v>286.2180494923551</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -2005,10 +2005,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2059,13 +2059,13 @@
         <v>286.2180494923551</v>
       </c>
       <c r="V19" t="n">
-        <v>10.82034485107738</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>53.73213719203093</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2245,19 +2245,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.1396818493028</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>99.77690983373165</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>94.05232337457501</v>
       </c>
       <c r="S22" t="n">
         <v>191.7535314455906</v>
@@ -2293,10 +2293,10 @@
         <v>220.0355000709787</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2180494923551</v>
       </c>
       <c r="V22" t="n">
-        <v>31.15304356968747</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>175.1012830835589</v>
       </c>
     </row>
     <row r="23">
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.9939844344737</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>145.7674546533075</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>94.05232337457501</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>191.7535314455906</v>
       </c>
       <c r="T25" t="n">
         <v>220.0355000709787</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2180494923551</v>
+        <v>62.90269904188196</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2573,7 +2573,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2716,10 +2716,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2773,10 +2773,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>103.1340411809964</v>
       </c>
       <c r="X28" t="n">
-        <v>156.5892371762728</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2810,7 +2810,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2950,19 +2950,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,25 +2995,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>156.9633445663064</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>181.4487096095768</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3047,7 +3047,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3187,25 +3187,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433866</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404359</v>
       </c>
       <c r="H34" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128501</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T34" t="n">
         <v>172.5738126575766</v>
@@ -3281,10 +3281,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3424,25 +3424,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C37" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D37" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433866</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G37" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145474</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S37" t="n">
         <v>142.7938887128493</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G38" t="n">
         <v>410.9217256534534</v>
@@ -3758,7 +3758,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3898,25 +3898,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D43" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797657</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433864</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572818</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145473</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -3961,7 +3961,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X43" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y43" t="n">
         <v>171.6095167335022</v>
@@ -3995,7 +3995,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,7 +4028,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4153,7 +4153,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1176.081332301712</v>
+        <v>1075.055971578407</v>
       </c>
       <c r="C2" t="n">
-        <v>818.8658378359718</v>
+        <v>849.4605384910358</v>
       </c>
       <c r="D2" t="n">
-        <v>460.6001392292213</v>
+        <v>491.1948398842853</v>
       </c>
       <c r="E2" t="n">
-        <v>74.81188663097703</v>
+        <v>491.1948398842853</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>80.20893509467773</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>66.28553103326863</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>66.28553103326863</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
@@ -4334,13 +4334,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2267.209817970484</v>
+        <v>2169.723949158869</v>
       </c>
       <c r="V2" t="n">
-        <v>1936.146930626913</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W2" t="n">
-        <v>1936.146930626913</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X2" t="n">
-        <v>1562.681172365833</v>
+        <v>1465.195303554219</v>
       </c>
       <c r="Y2" t="n">
-        <v>1562.681172365833</v>
+        <v>1075.055971578407</v>
       </c>
     </row>
     <row r="3">
@@ -4386,46 +4386,46 @@
         <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M3" t="n">
         <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>471.4038777286581</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>200.8329293182748</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V4" t="n">
-        <v>200.8329293182748</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="W4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1129.234822142136</v>
+        <v>1387.069036214947</v>
       </c>
       <c r="C5" t="n">
-        <v>760.2723052017247</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D5" t="n">
-        <v>402.0066065949742</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>402.0066065949742</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2070.717079250664</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X5" t="n">
-        <v>1697.251320989584</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="Y5" t="n">
-        <v>1307.111989013772</v>
+        <v>1387.069036214947</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>286.5323736931987</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U7" t="n">
-        <v>286.5323736931987</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V7" t="n">
-        <v>286.5323736931987</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W7" t="n">
-        <v>286.5323736931987</v>
+        <v>290.5651556036576</v>
       </c>
       <c r="X7" t="n">
-        <v>281.2479710834698</v>
+        <v>290.5651556036576</v>
       </c>
       <c r="Y7" t="n">
-        <v>281.2479710834698</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1099.292566481063</v>
+        <v>1254.177966138804</v>
       </c>
       <c r="C8" t="n">
-        <v>1099.292566481063</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D8" t="n">
-        <v>741.0268678743128</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762914</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
@@ -4814,7 +4814,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.661061815299</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W8" t="n">
-        <v>1485.892406545185</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X8" t="n">
-        <v>1485.892406545185</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="Y8" t="n">
-        <v>1485.892406545185</v>
+        <v>1640.777806202926</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4887,13 +4887,13 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>438.7118141694738</v>
+        <v>154.8539665087372</v>
       </c>
       <c r="C10" t="n">
-        <v>269.7756312415669</v>
+        <v>154.8539665087372</v>
       </c>
       <c r="D10" t="n">
-        <v>269.7756312415669</v>
+        <v>154.8539665087372</v>
       </c>
       <c r="E10" t="n">
-        <v>269.7756312415669</v>
+        <v>154.8539665087372</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>154.8539665087372</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>154.8539665087372</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>154.8539665087372</v>
       </c>
       <c r="W10" t="n">
-        <v>438.7118141694738</v>
+        <v>154.8539665087372</v>
       </c>
       <c r="X10" t="n">
-        <v>438.7118141694738</v>
+        <v>154.8539665087372</v>
       </c>
       <c r="Y10" t="n">
-        <v>438.7118141694738</v>
+        <v>154.8539665087372</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2429.652577797168</v>
+        <v>2364.262517753845</v>
       </c>
       <c r="C11" t="n">
-        <v>2060.690060856757</v>
+        <v>1995.300000813433</v>
       </c>
       <c r="D11" t="n">
-        <v>1702.424362250006</v>
+        <v>1637.034302206683</v>
       </c>
       <c r="E11" t="n">
         <v>1316.636109651762</v>
@@ -5039,10 +5039,10 @@
         <v>95.9641922114747</v>
       </c>
       <c r="J11" t="n">
-        <v>360.3114841118954</v>
+        <v>360.311484111895</v>
       </c>
       <c r="K11" t="n">
-        <v>877.2443539520364</v>
+        <v>877.2443539520352</v>
       </c>
       <c r="L11" t="n">
         <v>1570.821916862108</v>
@@ -5051,13 +5051,13 @@
         <v>2359.167139161804</v>
       </c>
       <c r="N11" t="n">
-        <v>3145.636613802051</v>
+        <v>3145.63661380205</v>
       </c>
       <c r="O11" t="n">
         <v>3843.08979922553</v>
       </c>
       <c r="P11" t="n">
-        <v>4400.675573927201</v>
+        <v>4400.6755739272</v>
       </c>
       <c r="Q11" t="n">
         <v>4742.17750973669</v>
@@ -5130,13 +5130,13 @@
         <v>1187.972109621302</v>
       </c>
       <c r="N12" t="n">
-        <v>1677.728445118821</v>
+        <v>1510.756775667038</v>
       </c>
       <c r="O12" t="n">
-        <v>2340.717254332782</v>
+        <v>2173.745584880999</v>
       </c>
       <c r="P12" t="n">
-        <v>2540.543015221951</v>
+        <v>2373.571345770168</v>
       </c>
       <c r="Q12" t="n">
         <v>2624.202048053398</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>628.8285097484003</v>
+        <v>95.9641922114747</v>
       </c>
       <c r="C13" t="n">
-        <v>628.8285097484003</v>
+        <v>95.9641922114747</v>
       </c>
       <c r="D13" t="n">
-        <v>478.7118703360645</v>
+        <v>95.9641922114747</v>
       </c>
       <c r="E13" t="n">
-        <v>330.7987767536714</v>
+        <v>95.9641922114747</v>
       </c>
       <c r="F13" t="n">
-        <v>330.7987767536714</v>
+        <v>95.9641922114747</v>
       </c>
       <c r="G13" t="n">
-        <v>330.7987767536714</v>
+        <v>95.9641922114747</v>
       </c>
       <c r="H13" t="n">
-        <v>180.1737992881904</v>
+        <v>95.9641922114747</v>
       </c>
       <c r="I13" t="n">
         <v>95.9641922114747</v>
@@ -5224,25 +5224,25 @@
         <v>1362.923137775693</v>
       </c>
       <c r="S13" t="n">
-        <v>1362.923137775693</v>
+        <v>1162.597443029963</v>
       </c>
       <c r="T13" t="n">
-        <v>1139.038258928891</v>
+        <v>938.7125641831608</v>
       </c>
       <c r="U13" t="n">
-        <v>1139.038258928891</v>
+        <v>868.0554013523396</v>
       </c>
       <c r="V13" t="n">
-        <v>1139.038258928891</v>
+        <v>613.3709131464527</v>
       </c>
       <c r="W13" t="n">
-        <v>849.6210888919304</v>
+        <v>323.9537431094921</v>
       </c>
       <c r="X13" t="n">
-        <v>849.6210888919304</v>
+        <v>95.9641922114747</v>
       </c>
       <c r="Y13" t="n">
-        <v>628.8285097484003</v>
+        <v>95.9641922114747</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5252,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2387.387921344639</v>
+        <v>2387.387921344638</v>
       </c>
       <c r="C14" t="n">
         <v>2018.425404404227</v>
       </c>
       <c r="D14" t="n">
-        <v>1660.159705797477</v>
+        <v>1660.159705797476</v>
       </c>
       <c r="E14" t="n">
-        <v>1274.371453199233</v>
+        <v>1274.371453199232</v>
       </c>
       <c r="F14" t="n">
         <v>863.3855484096252</v>
@@ -5276,52 +5276,52 @@
         <v>95.9641922114747</v>
       </c>
       <c r="J14" t="n">
-        <v>263.5125960578204</v>
+        <v>430.9182450781734</v>
       </c>
       <c r="K14" t="n">
-        <v>565.362739226339</v>
+        <v>1053.672346692145</v>
       </c>
       <c r="L14" t="n">
-        <v>1384.497638628817</v>
+        <v>1878.530504971056</v>
       </c>
       <c r="M14" t="n">
-        <v>1873.899420181116</v>
+        <v>2812.950684681259</v>
       </c>
       <c r="N14" t="n">
-        <v>2808.807497759438</v>
+        <v>3314.885307091717</v>
       </c>
       <c r="O14" t="n">
-        <v>3646.427046714127</v>
+        <v>3899.948512129643</v>
       </c>
       <c r="P14" t="n">
-        <v>4323.641569826255</v>
+        <v>4258.582314152003</v>
       </c>
       <c r="Q14" t="n">
-        <v>4754.979713630527</v>
+        <v>4689.920457956275</v>
       </c>
       <c r="R14" t="n">
         <v>4798.209610573735</v>
       </c>
       <c r="S14" t="n">
-        <v>4682.075637026651</v>
+        <v>4682.07563702665</v>
       </c>
       <c r="T14" t="n">
-        <v>4474.975385057073</v>
+        <v>4474.975385057072</v>
       </c>
       <c r="U14" t="n">
-        <v>4221.424394259338</v>
+        <v>4221.424394259337</v>
       </c>
       <c r="V14" t="n">
-        <v>3890.361506915767</v>
+        <v>3890.361506915766</v>
       </c>
       <c r="W14" t="n">
         <v>3537.592851645652</v>
       </c>
       <c r="X14" t="n">
-        <v>3164.127093384573</v>
+        <v>3164.127093384572</v>
       </c>
       <c r="Y14" t="n">
-        <v>2773.987761408761</v>
+        <v>2773.98776140876</v>
       </c>
     </row>
     <row r="15">
@@ -5361,13 +5361,13 @@
         <v>393.4873229022247</v>
       </c>
       <c r="L15" t="n">
-        <v>730.9884611817581</v>
+        <v>937.4093077931427</v>
       </c>
       <c r="M15" t="n">
-        <v>1144.19323882597</v>
+        <v>1350.614085437355</v>
       </c>
       <c r="N15" t="n">
-        <v>1582.742962320982</v>
+        <v>1789.163808932367</v>
       </c>
       <c r="O15" t="n">
         <v>2168.131333088704</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>727.5212766735262</v>
+        <v>500.8237260221778</v>
       </c>
       <c r="C16" t="n">
-        <v>558.5850937456194</v>
+        <v>500.8237260221778</v>
       </c>
       <c r="D16" t="n">
-        <v>558.5850937456194</v>
+        <v>500.8237260221778</v>
       </c>
       <c r="E16" t="n">
-        <v>410.6720001632262</v>
+        <v>352.9106324397847</v>
       </c>
       <c r="F16" t="n">
         <v>263.7820526653159</v>
@@ -5458,28 +5458,28 @@
         <v>1844.985388692803</v>
       </c>
       <c r="R16" t="n">
-        <v>1844.985388692803</v>
+        <v>1749.983041849798</v>
       </c>
       <c r="S16" t="n">
-        <v>1651.294952889176</v>
+        <v>1556.292606046171</v>
       </c>
       <c r="T16" t="n">
-        <v>1651.294952889176</v>
+        <v>1334.034525166394</v>
       </c>
       <c r="U16" t="n">
-        <v>1426.576462438744</v>
+        <v>1044.925384265025</v>
       </c>
       <c r="V16" t="n">
-        <v>1426.576462438744</v>
+        <v>790.2408960591384</v>
       </c>
       <c r="W16" t="n">
-        <v>1137.159292401783</v>
+        <v>500.8237260221778</v>
       </c>
       <c r="X16" t="n">
-        <v>909.169741503766</v>
+        <v>500.8237260221778</v>
       </c>
       <c r="Y16" t="n">
-        <v>909.169741503766</v>
+        <v>500.8237260221778</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2387.387921344639</v>
+        <v>2387.38792134464</v>
       </c>
       <c r="C17" t="n">
-        <v>2018.425404404227</v>
+        <v>2018.425404404229</v>
       </c>
       <c r="D17" t="n">
-        <v>1660.159705797477</v>
+        <v>1660.159705797478</v>
       </c>
       <c r="E17" t="n">
-        <v>1274.371453199233</v>
+        <v>1274.371453199234</v>
       </c>
       <c r="F17" t="n">
-        <v>863.3855484096252</v>
+        <v>863.3855484096262</v>
       </c>
       <c r="G17" t="n">
         <v>448.0566723599786</v>
@@ -5513,25 +5513,25 @@
         <v>95.9641922114747</v>
       </c>
       <c r="J17" t="n">
-        <v>430.9182450781734</v>
+        <v>301.8326151960127</v>
       </c>
       <c r="K17" t="n">
-        <v>1053.672346692145</v>
+        <v>924.5867168099845</v>
       </c>
       <c r="L17" t="n">
-        <v>1878.530504971056</v>
+        <v>1749.444875088895</v>
       </c>
       <c r="M17" t="n">
-        <v>2812.950684681259</v>
+        <v>2683.865054799098</v>
       </c>
       <c r="N17" t="n">
-        <v>3314.885307091717</v>
+        <v>3185.799677209556</v>
       </c>
       <c r="O17" t="n">
-        <v>3856.618887467433</v>
+        <v>3646.427046714127</v>
       </c>
       <c r="P17" t="n">
-        <v>4533.833410579561</v>
+        <v>4323.641569826255</v>
       </c>
       <c r="Q17" t="n">
         <v>4754.979713630527</v>
@@ -5604,7 +5604,7 @@
         <v>1144.19323882597</v>
       </c>
       <c r="N18" t="n">
-        <v>1582.742962320982</v>
+        <v>1789.163808932367</v>
       </c>
       <c r="O18" t="n">
         <v>2168.131333088704</v>
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>562.9301081341105</v>
+        <v>264.9003751393816</v>
       </c>
       <c r="C19" t="n">
-        <v>393.9939252062036</v>
+        <v>95.9641922114747</v>
       </c>
       <c r="D19" t="n">
-        <v>243.8772857938678</v>
+        <v>95.9641922114747</v>
       </c>
       <c r="E19" t="n">
         <v>95.9641922114747</v>
@@ -5707,16 +5707,16 @@
         <v>1044.925384265025</v>
       </c>
       <c r="V19" t="n">
-        <v>1033.995743001311</v>
+        <v>790.2408960591384</v>
       </c>
       <c r="W19" t="n">
-        <v>744.5785729643502</v>
+        <v>500.8237260221778</v>
       </c>
       <c r="X19" t="n">
-        <v>744.5785729643502</v>
+        <v>446.5488399696213</v>
       </c>
       <c r="Y19" t="n">
-        <v>744.5785729643502</v>
+        <v>446.5488399696213</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2387.38792134464</v>
+        <v>2387.387921344639</v>
       </c>
       <c r="C20" t="n">
-        <v>2018.425404404228</v>
+        <v>2018.425404404227</v>
       </c>
       <c r="D20" t="n">
-        <v>1660.159705797478</v>
+        <v>1660.159705797477</v>
       </c>
       <c r="E20" t="n">
-        <v>1274.371453199234</v>
+        <v>1274.371453199233</v>
       </c>
       <c r="F20" t="n">
-        <v>863.3855484096262</v>
+        <v>863.3855484096252</v>
       </c>
       <c r="G20" t="n">
-        <v>448.0566723599795</v>
+        <v>448.0566723599786</v>
       </c>
       <c r="H20" t="n">
-        <v>147.8469502752332</v>
+        <v>147.8469502752326</v>
       </c>
       <c r="I20" t="n">
         <v>95.9641922114747</v>
       </c>
       <c r="J20" t="n">
-        <v>397.631721871222</v>
+        <v>430.9182450781734</v>
       </c>
       <c r="K20" t="n">
-        <v>1020.385823485194</v>
+        <v>732.7683882466922</v>
       </c>
       <c r="L20" t="n">
-        <v>1845.243981764105</v>
+        <v>1557.626546525603</v>
       </c>
       <c r="M20" t="n">
-        <v>2779.664161474308</v>
+        <v>2492.046726235806</v>
       </c>
       <c r="N20" t="n">
-        <v>3714.57223905263</v>
+        <v>3062.328963174953</v>
       </c>
       <c r="O20" t="n">
-        <v>4175.199608557201</v>
+        <v>3899.948512129642</v>
       </c>
       <c r="P20" t="n">
-        <v>4533.833410579561</v>
+        <v>4258.582314152002</v>
       </c>
       <c r="Q20" t="n">
-        <v>4754.979713630527</v>
+        <v>4689.920457956274</v>
       </c>
       <c r="R20" t="n">
-        <v>4798.209610573735</v>
+        <v>4798.209610573734</v>
       </c>
       <c r="S20" t="n">
-        <v>4682.075637026651</v>
+        <v>4682.07563702665</v>
       </c>
       <c r="T20" t="n">
-        <v>4474.975385057073</v>
+        <v>4474.975385057072</v>
       </c>
       <c r="U20" t="n">
         <v>4221.424394259338</v>
       </c>
       <c r="V20" t="n">
-        <v>3890.361506915768</v>
+        <v>3890.361506915767</v>
       </c>
       <c r="W20" t="n">
         <v>3537.592851645653</v>
       </c>
       <c r="X20" t="n">
-        <v>3164.127093384574</v>
+        <v>3164.127093384573</v>
       </c>
       <c r="Y20" t="n">
-        <v>2773.987761408762</v>
+        <v>2773.987761408761</v>
       </c>
     </row>
     <row r="21">
@@ -5838,13 +5838,13 @@
         <v>730.9884611817581</v>
       </c>
       <c r="M21" t="n">
-        <v>1350.614085437355</v>
+        <v>1144.19323882597</v>
       </c>
       <c r="N21" t="n">
-        <v>1789.163808932367</v>
+        <v>1582.742962320982</v>
       </c>
       <c r="O21" t="n">
-        <v>2168.131333088704</v>
+        <v>1961.71048647732</v>
       </c>
       <c r="P21" t="n">
         <v>2452.95311534799</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>659.3698511534292</v>
+        <v>95.9641922114747</v>
       </c>
       <c r="C22" t="n">
-        <v>659.3698511534292</v>
+        <v>95.9641922114747</v>
       </c>
       <c r="D22" t="n">
-        <v>659.3698511534292</v>
+        <v>95.9641922114747</v>
       </c>
       <c r="E22" t="n">
-        <v>511.4567575710361</v>
+        <v>95.9641922114747</v>
       </c>
       <c r="F22" t="n">
-        <v>364.5668100731257</v>
+        <v>95.9641922114747</v>
       </c>
       <c r="G22" t="n">
-        <v>196.7489496192844</v>
+        <v>95.9641922114747</v>
       </c>
       <c r="H22" t="n">
-        <v>196.7489496192844</v>
+        <v>95.9641922114747</v>
       </c>
       <c r="I22" t="n">
         <v>95.9641922114747</v>
@@ -5932,28 +5932,28 @@
         <v>1844.985388692803</v>
       </c>
       <c r="R22" t="n">
-        <v>1844.985388692803</v>
+        <v>1749.983041849798</v>
       </c>
       <c r="S22" t="n">
-        <v>1651.294952889176</v>
+        <v>1556.292606046171</v>
       </c>
       <c r="T22" t="n">
-        <v>1429.036872009399</v>
+        <v>1334.034525166394</v>
       </c>
       <c r="U22" t="n">
-        <v>1429.036872009399</v>
+        <v>1044.925384265025</v>
       </c>
       <c r="V22" t="n">
-        <v>1397.569151231937</v>
+        <v>790.2408960591384</v>
       </c>
       <c r="W22" t="n">
-        <v>1108.151981194977</v>
+        <v>500.8237260221778</v>
       </c>
       <c r="X22" t="n">
-        <v>880.1624302969593</v>
+        <v>272.8341751241605</v>
       </c>
       <c r="Y22" t="n">
-        <v>659.3698511534292</v>
+        <v>95.9641922114747</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2387.38792134464</v>
+        <v>2387.387921344639</v>
       </c>
       <c r="C23" t="n">
-        <v>2018.425404404228</v>
+        <v>2018.425404404227</v>
       </c>
       <c r="D23" t="n">
-        <v>1660.159705797478</v>
+        <v>1660.159705797477</v>
       </c>
       <c r="E23" t="n">
         <v>1274.371453199233</v>
       </c>
       <c r="F23" t="n">
-        <v>863.3855484096259</v>
+        <v>863.3855484096252</v>
       </c>
       <c r="G23" t="n">
-        <v>448.0566723599794</v>
+        <v>448.0566723599786</v>
       </c>
       <c r="H23" t="n">
-        <v>147.8469502752333</v>
+        <v>147.8469502752326</v>
       </c>
       <c r="I23" t="n">
-        <v>95.96419221147548</v>
+        <v>95.9641922114747</v>
       </c>
       <c r="J23" t="n">
-        <v>430.9182450781742</v>
+        <v>430.9182450781734</v>
       </c>
       <c r="K23" t="n">
-        <v>1053.672346692146</v>
+        <v>1053.672346692145</v>
       </c>
       <c r="L23" t="n">
-        <v>1878.530504971057</v>
+        <v>1684.385619414642</v>
       </c>
       <c r="M23" t="n">
-        <v>2812.95068468126</v>
+        <v>2618.805799124845</v>
       </c>
       <c r="N23" t="n">
-        <v>3337.580059602512</v>
+        <v>3120.740421535303</v>
       </c>
       <c r="O23" t="n">
-        <v>4175.199608557201</v>
+        <v>3581.367791039874</v>
       </c>
       <c r="P23" t="n">
-        <v>4533.833410579561</v>
+        <v>4258.582314152002</v>
       </c>
       <c r="Q23" t="n">
-        <v>4754.979713630527</v>
+        <v>4689.920457956274</v>
       </c>
       <c r="R23" t="n">
-        <v>4798.209610573735</v>
+        <v>4798.209610573734</v>
       </c>
       <c r="S23" t="n">
-        <v>4682.075637026651</v>
+        <v>4682.07563702665</v>
       </c>
       <c r="T23" t="n">
-        <v>4474.975385057073</v>
+        <v>4474.975385057072</v>
       </c>
       <c r="U23" t="n">
         <v>4221.424394259338</v>
       </c>
       <c r="V23" t="n">
-        <v>3890.361506915768</v>
+        <v>3890.361506915767</v>
       </c>
       <c r="W23" t="n">
         <v>3537.592851645653</v>
       </c>
       <c r="X23" t="n">
-        <v>3164.127093384574</v>
+        <v>3164.127093384573</v>
       </c>
       <c r="Y23" t="n">
-        <v>2773.987761408762</v>
+        <v>2773.987761408761</v>
       </c>
     </row>
     <row r="24">
@@ -6081,10 +6081,10 @@
         <v>1582.742962320982</v>
       </c>
       <c r="O24" t="n">
-        <v>2168.131333088704</v>
+        <v>1961.71048647732</v>
       </c>
       <c r="P24" t="n">
-        <v>2452.95311534799</v>
+        <v>2246.532268736606</v>
       </c>
       <c r="Q24" t="n">
         <v>2593.429737548629</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>709.1468152347868</v>
+        <v>95.9641922114747</v>
       </c>
       <c r="C25" t="n">
-        <v>540.2106323068799</v>
+        <v>95.9641922114747</v>
       </c>
       <c r="D25" t="n">
-        <v>390.0939928945442</v>
+        <v>95.9641922114747</v>
       </c>
       <c r="E25" t="n">
-        <v>390.0939928945442</v>
+        <v>95.9641922114747</v>
       </c>
       <c r="F25" t="n">
-        <v>243.2040453966338</v>
+        <v>95.9641922114747</v>
       </c>
       <c r="G25" t="n">
-        <v>243.2040453966338</v>
+        <v>95.9641922114747</v>
       </c>
       <c r="H25" t="n">
         <v>95.9641922114747</v>
@@ -6169,28 +6169,28 @@
         <v>1844.985388692803</v>
       </c>
       <c r="R25" t="n">
-        <v>1844.985388692803</v>
+        <v>1749.983041849798</v>
       </c>
       <c r="S25" t="n">
-        <v>1844.985388692803</v>
+        <v>1556.292606046171</v>
       </c>
       <c r="T25" t="n">
-        <v>1622.727307813026</v>
+        <v>1334.034525166394</v>
       </c>
       <c r="U25" t="n">
-        <v>1333.618166911657</v>
+        <v>1270.496445326109</v>
       </c>
       <c r="V25" t="n">
-        <v>1333.618166911657</v>
+        <v>1015.811957120222</v>
       </c>
       <c r="W25" t="n">
-        <v>1044.200996874697</v>
+        <v>726.3947870832618</v>
       </c>
       <c r="X25" t="n">
-        <v>816.2114459766794</v>
+        <v>498.4052361852445</v>
       </c>
       <c r="Y25" t="n">
-        <v>816.2114459766794</v>
+        <v>277.6126570417144</v>
       </c>
     </row>
     <row r="26">
@@ -6206,16 +6206,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6227,25 +6227,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L26" t="n">
-        <v>1069.293752345675</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M26" t="n">
-        <v>2047.844055175504</v>
+        <v>1999.417367126749</v>
       </c>
       <c r="N26" t="n">
-        <v>3027.596327402151</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O26" t="n">
-        <v>3907.560977731605</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>562.5269503710301</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C28" t="n">
-        <v>393.5907674431232</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>243.4741280307875</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
         <v>95.56103444839442</v>
@@ -6385,7 +6385,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6397,37 +6397,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S28" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T28" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1667.240599230347</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>1412.556111024461</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W28" t="n">
-        <v>1123.1389409875</v>
+        <v>894.9278122480886</v>
       </c>
       <c r="X28" t="n">
-        <v>964.9679943448</v>
+        <v>666.9382613500712</v>
       </c>
       <c r="Y28" t="n">
-        <v>744.1754152012699</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="29">
@@ -6437,49 +6437,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.557933208926</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1971.087962216427</v>
+        <v>1153.95253867896</v>
       </c>
       <c r="M29" t="n">
-        <v>2504.619866888352</v>
+        <v>1687.484443350884</v>
       </c>
       <c r="N29" t="n">
-        <v>3051.398683947134</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O29" t="n">
-        <v>3931.363334276589</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P29" t="n">
-        <v>4326.137700633767</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q29" t="n">
         <v>4719.034655862919</v>
@@ -6488,25 +6488,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6516,52 +6516,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C30" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494852</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763703</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P30" t="n">
         <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142067</v>
@@ -6570,16 +6570,16 @@
         <v>2464.520220635547</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U30" t="n">
         <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X30" t="n">
         <v>1346.568408282341</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>727.0030950818858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C31" t="n">
-        <v>558.0669121539789</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>558.0669121539789</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
         <v>95.56103444839442</v>
@@ -6622,7 +6622,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6634,37 +6634,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T31" t="n">
-        <v>1866.513008862232</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U31" t="n">
-        <v>1577.410141987875</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V31" t="n">
-        <v>1418.861309092616</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W31" t="n">
-        <v>1129.444139055656</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X31" t="n">
-        <v>1129.444139055656</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.6515599121255</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="32">
@@ -6677,43 +6677,43 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551625</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>301.7164587107663</v>
       </c>
       <c r="K32" t="n">
-        <v>785.6651881176194</v>
+        <v>956.4397908460658</v>
       </c>
       <c r="L32" t="n">
-        <v>1236.699401366028</v>
+        <v>1407.474004094474</v>
       </c>
       <c r="M32" t="n">
-        <v>1770.231306037953</v>
+        <v>1941.005908766399</v>
       </c>
       <c r="N32" t="n">
-        <v>2749.9835782646</v>
+        <v>2920.758180993045</v>
       </c>
       <c r="O32" t="n">
-        <v>3629.948228594054</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P32" t="n">
         <v>4195.497197679678</v>
@@ -6725,25 +6725,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6768,7 +6768,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H33" t="n">
         <v>114.5683260468565</v>
@@ -6777,13 +6777,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>788.5151678215051</v>
+        <v>788.5151678215057</v>
       </c>
       <c r="C34" t="n">
-        <v>667.0286178416715</v>
+        <v>667.028617841672</v>
       </c>
       <c r="D34" t="n">
-        <v>564.3616113774091</v>
+        <v>564.3616113774096</v>
       </c>
       <c r="E34" t="n">
-        <v>463.8981507430893</v>
+        <v>463.8981507430898</v>
       </c>
       <c r="F34" t="n">
-        <v>364.4578361932523</v>
+        <v>364.4578361932527</v>
       </c>
       <c r="G34" t="n">
-        <v>244.2046325160446</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H34" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
@@ -6859,10 +6859,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K34" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490195</v>
       </c>
       <c r="L34" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M34" t="n">
         <v>1191.409234901878</v>
@@ -6877,7 +6877,7 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q34" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R34" t="n">
         <v>2286.005723829558</v>
@@ -6886,22 +6886,22 @@
         <v>2141.769472604457</v>
       </c>
       <c r="T34" t="n">
-        <v>1967.452490122056</v>
+        <v>1967.452490122057</v>
       </c>
       <c r="U34" t="n">
-        <v>1725.799256195773</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V34" t="n">
         <v>1518.56440093796</v>
       </c>
       <c r="W34" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X34" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y34" t="n">
-        <v>922.7139997036714</v>
+        <v>922.713999703672</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
@@ -6923,40 +6923,40 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1650.184003770974</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M35" t="n">
-        <v>2183.715908442899</v>
+        <v>2047.844055175503</v>
       </c>
       <c r="N35" t="n">
-        <v>3163.468180669545</v>
+        <v>3027.59632740215</v>
       </c>
       <c r="O35" t="n">
-        <v>4010.914672075805</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P35" t="n">
-        <v>4405.689038432984</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -6968,19 +6968,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -7005,7 +7005,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
@@ -7014,13 +7014,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7078,16 +7078,16 @@
         <v>564.3616113774094</v>
       </c>
       <c r="E37" t="n">
-        <v>463.8981507430894</v>
+        <v>463.8981507430896</v>
       </c>
       <c r="F37" t="n">
-        <v>364.4578361932523</v>
+        <v>364.4578361932525</v>
       </c>
       <c r="G37" t="n">
-        <v>244.2046325160446</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H37" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
@@ -7096,7 +7096,7 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K37" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L37" t="n">
         <v>800.7468040499223</v>
@@ -7132,13 +7132,13 @@
         <v>1518.56440093796</v>
       </c>
       <c r="W37" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X37" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y37" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036717</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
@@ -7160,10 +7160,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551625</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7175,22 +7175,22 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1390.197710791128</v>
+        <v>1231.058905050226</v>
       </c>
       <c r="M38" t="n">
-        <v>1941.005908766398</v>
+        <v>2209.609207880054</v>
       </c>
       <c r="N38" t="n">
-        <v>2920.758180993045</v>
+        <v>3189.361480106701</v>
       </c>
       <c r="O38" t="n">
-        <v>3800.7228313225</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q38" t="n">
         <v>4653.975400188666</v>
@@ -7205,19 +7205,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
         <v>205.0702204089889</v>
@@ -7293,10 +7293,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215055</v>
+        <v>788.5151678215054</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416719</v>
+        <v>667.0286178416718</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774094</v>
+        <v>564.3616113774093</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430897</v>
+        <v>463.8981507430895</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932526</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G40" t="n">
-        <v>244.2046325160449</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H40" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819757</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7336,13 +7336,13 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499224</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M40" t="n">
         <v>1191.409234901878</v>
       </c>
       <c r="N40" t="n">
-        <v>1579.32299686015</v>
+        <v>1579.322996860149</v>
       </c>
       <c r="O40" t="n">
         <v>1925.157981032969</v>
@@ -7351,13 +7351,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q40" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R40" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S40" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T40" t="n">
         <v>1967.452490122057</v>
@@ -7369,13 +7369,13 @@
         <v>1518.56440093796</v>
       </c>
       <c r="W40" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X40" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.713999703672</v>
+        <v>922.7139997036717</v>
       </c>
     </row>
     <row r="41">
@@ -7388,46 +7388,46 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>379.6167698340348</v>
       </c>
       <c r="K41" t="n">
-        <v>939.1634975427194</v>
+        <v>1034.340101969334</v>
       </c>
       <c r="L41" t="n">
-        <v>1803.682313196074</v>
+        <v>1898.858917622689</v>
       </c>
       <c r="M41" t="n">
-        <v>2584.171204687568</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N41" t="n">
-        <v>3130.950021746351</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O41" t="n">
-        <v>4010.914672075805</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
         <v>4653.975400188666</v>
@@ -7439,16 +7439,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
         <v>3150.95552873011</v>
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G42" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T42" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W42" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.515167821505</v>
+        <v>788.5151678215051</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416713</v>
+        <v>667.0286178416715</v>
       </c>
       <c r="D43" t="n">
-        <v>564.361611377409</v>
+        <v>564.3616113774091</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430892</v>
+        <v>463.8981507430893</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932521</v>
+        <v>364.4578361932523</v>
       </c>
       <c r="G43" t="n">
-        <v>244.2046325160444</v>
+        <v>244.2046325160446</v>
       </c>
       <c r="H43" t="n">
         <v>145.4370786819757</v>
@@ -7570,10 +7570,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K43" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499224</v>
       </c>
       <c r="M43" t="n">
         <v>1191.409234901878</v>
@@ -7612,7 +7612,7 @@
         <v>1096.056945899128</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036713</v>
+        <v>922.7139997036714</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7646,52 +7646,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L44" t="n">
-        <v>1482.778354750621</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M44" t="n">
-        <v>2016.310259422546</v>
+        <v>1941.005908766399</v>
       </c>
       <c r="N44" t="n">
-        <v>2996.062531649192</v>
+        <v>2920.758180993045</v>
       </c>
       <c r="O44" t="n">
-        <v>3547.201365906985</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P44" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H45" t="n">
         <v>114.5683260468565</v>
@@ -7725,13 +7725,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7743,22 +7743,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7767,10 +7767,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215053</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416717</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774093</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430895</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F46" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932523</v>
       </c>
       <c r="G46" t="n">
         <v>244.2046325160447</v>
@@ -7810,7 +7810,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M46" t="n">
         <v>1191.409234901878</v>
@@ -7825,7 +7825,7 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q46" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R46" t="n">
         <v>2286.005723829558</v>
@@ -7849,7 +7849,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
   </sheetData>
@@ -8058,10 +8058,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050811</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8292,16 +8292,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>327.4218609627885</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8535,7 +8535,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8544,7 +8544,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783519</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8778,7 +8778,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>168.6582519714975</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8787,7 +8787,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>168.6582519714976</v>
       </c>
       <c r="R12" t="n">
         <v>36.49101924097576</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>411.8801449782962</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>125.6927631650046</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9009,7 +9009,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>208.5059056680653</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,7 +9018,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>208.5059056680652</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>38.70709003857817</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9176,13 +9176,13 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>81.92546552640886</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9252,10 +9252,10 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>208.5059056680652</v>
       </c>
       <c r="O18" t="n">
-        <v>208.5059056680652</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9398,10 +9398,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>135.4738644579814</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9410,19 +9410,19 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>69.03799447342345</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9486,7 +9486,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>208.5059056680653</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9495,7 +9495,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>208.505905668065</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9641,25 +9641,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>221.5552695439717</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>22.92399243514552</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9729,13 +9729,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>208.5059056680652</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>208.5059056680647</v>
       </c>
       <c r="R24" t="n">
         <v>8.576157487435495</v>
@@ -9875,28 +9875,28 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>76.45227440777433</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>170.1140909277305</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -10109,28 +10109,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>85.51392558917649</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>146.0713065388582</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10346,10 +10346,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>17.45080131651167</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10364,7 +10364,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>172.4995987156013</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>347.9535560878012</v>
+        <v>16.80057335908975</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10823,25 +10823,25 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>163.3991441460108</v>
       </c>
       <c r="M38" t="n">
-        <v>17.45080131651048</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>96.13798426930811</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11066,19 +11066,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>249.4515018379491</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11294,31 +11294,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>172.4995987156027</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>48.65289230147073</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22565,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>139.7121925240861</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22720,13 +22720,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22759,19 +22759,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>18.41663531569827</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>141.2253328975041</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>64.73615944289014</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>64.73615944288997</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23419,10 +23419,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,10 +23431,10 @@
         <v>166.516614399535</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>149.1187276908262</v>
       </c>
       <c r="I13" t="n">
-        <v>27.74478861112863</v>
+        <v>111.1122996170772</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23464,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>198.322437798273</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2386094496405</v>
+        <v>216.2880182471275</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>57.18375404620716</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>94.05232337457501</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>220.0355000709787</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>63.74674394642747</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23893,10 +23893,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23947,13 +23947,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>241.3172984727506</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>171.9775181970062</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.1396818493028</v>
       </c>
       <c r="H22" t="n">
         <v>145.7674546533075</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>99.77690983373165</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>94.05232337457501</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,10 +24181,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2180494923551</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>220.9845997541405</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>43.48337026853588</v>
       </c>
     </row>
     <row r="23">
@@ -24361,25 +24361,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.83799574746359</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.1396818493028</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>145.7674546533075</v>
       </c>
       <c r="I25" t="n">
         <v>99.77690983373165</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>94.05232337457501</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>191.7535314455906</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>223.3153504504732</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,10 +24604,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24619,7 +24619,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,10 +24661,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>183.3889571555947</v>
       </c>
       <c r="X28" t="n">
-        <v>69.12041821276432</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,22 +24886,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>95.1742987575216</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>105.0742887270142</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25087,7 +25087,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>-5.884183307370906e-14</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>-7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1267973.219883824</v>
+        <v>1267973.219883825</v>
       </c>
     </row>
     <row r="7">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1310496.365925756</v>
+        <v>1310496.365925757</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1310496.365925756</v>
+        <v>1310496.365925757</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1310496.365925756</v>
+        <v>1310496.365925757</v>
       </c>
     </row>
     <row r="16">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>139568.2113943699</v>
+        <v>139568.2113943698</v>
       </c>
       <c r="C2" t="n">
-        <v>143682.3097262498</v>
+        <v>143682.3097262497</v>
       </c>
       <c r="D2" t="n">
         <v>143682.3097262497</v>
       </c>
       <c r="E2" t="n">
-        <v>135854.0227124554</v>
+        <v>135854.0227124553</v>
       </c>
       <c r="F2" t="n">
-        <v>138462.8995796423</v>
+        <v>138462.8995796422</v>
       </c>
       <c r="G2" t="n">
         <v>138462.8995796423</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>510216.4288594122</v>
+        <v>510216.4288594123</v>
       </c>
       <c r="F3" t="n">
         <v>165223.7402705831</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>221821.054212295</v>
+        <v>221821.0542122948</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169930.4475800593</v>
+        <v>169930.4475800594</v>
       </c>
       <c r="C4" t="n">
         <v>183348.686857128</v>
@@ -26430,19 +26430,19 @@
         <v>22598.2869748302</v>
       </c>
       <c r="G4" t="n">
-        <v>22598.28697483017</v>
+        <v>22598.2869748302</v>
       </c>
       <c r="H4" t="n">
-        <v>22598.2869748302</v>
+        <v>22598.28697483019</v>
       </c>
       <c r="I4" t="n">
         <v>22598.28697483019</v>
       </c>
       <c r="J4" t="n">
-        <v>18148.49231918992</v>
+        <v>18148.49231918995</v>
       </c>
       <c r="K4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918995</v>
       </c>
       <c r="L4" t="n">
         <v>33605.65329740899</v>
@@ -26451,13 +26451,13 @@
         <v>33605.65329740899</v>
       </c>
       <c r="N4" t="n">
-        <v>33605.65329740898</v>
+        <v>33605.65329740897</v>
       </c>
       <c r="O4" t="n">
         <v>33605.65329740898</v>
       </c>
       <c r="P4" t="n">
-        <v>33605.65329740899</v>
+        <v>33605.653297409</v>
       </c>
     </row>
     <row r="5">
@@ -26491,10 +26491,10 @@
         <v>95313.28996868077</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
         <v>100332.6710141021</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-703189.1934636434</v>
+        <v>-703247.9662969559</v>
       </c>
       <c r="C6" t="n">
-        <v>-122525.4551942876</v>
+        <v>-122525.4551942877</v>
       </c>
       <c r="D6" t="n">
         <v>-122525.4551942878</v>
       </c>
       <c r="E6" t="n">
-        <v>-501787.2339111452</v>
+        <v>-501899.066582771</v>
       </c>
       <c r="F6" t="n">
-        <v>-144672.4176344518</v>
+        <v>-144746.9806365462</v>
       </c>
       <c r="G6" t="n">
-        <v>20551.32263613134</v>
+        <v>20476.75963403698</v>
       </c>
       <c r="H6" t="n">
-        <v>20551.32263613134</v>
+        <v>20476.75963403697</v>
       </c>
       <c r="I6" t="n">
-        <v>20551.32263613133</v>
+        <v>20476.75963403697</v>
       </c>
       <c r="J6" t="n">
-        <v>-197374.4393747544</v>
+        <v>-197441.6348649801</v>
       </c>
       <c r="K6" t="n">
-        <v>24446.61483754047</v>
+        <v>24379.41934731475</v>
       </c>
       <c r="L6" t="n">
-        <v>-27836.12388013543</v>
+        <v>-27836.12388013545</v>
       </c>
       <c r="M6" t="n">
         <v>-121154.1860140894</v>
       </c>
       <c r="N6" t="n">
-        <v>9743.985414738592</v>
+        <v>9743.985414738621</v>
       </c>
       <c r="O6" t="n">
-        <v>9743.98541473868</v>
+        <v>9743.985414738709</v>
       </c>
       <c r="P6" t="n">
-        <v>9743.985414738578</v>
+        <v>9743.985414738636</v>
       </c>
     </row>
   </sheetData>
@@ -26713,16 +26713,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N2" t="n">
         <v>46.97513661859254</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="P2" t="n">
         <v>46.97513661859256</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>817.6023863122876</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1199.552402643434</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63.14808187953668</v>
+        <v>63.14808187953645</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2651298888781</v>
+        <v>525.2651298888782</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>669.247800716052</v>
+        <v>669.2478007160521</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2651298888781</v>
+        <v>525.2651298888782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2651298888781</v>
+        <v>525.2651298888782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>11.6295522499251</v>
+        <v>141.93341301451</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27458,7 +27458,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>130.3958356744439</v>
       </c>
       <c r="X4" t="n">
-        <v>84.48432249153305</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>206.6354464605609</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>37.12486918047688</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27819,13 +27819,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>220.4780968054056</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>29.52866049517158</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27853,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>73.55456206747738</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>274.3088548862206</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,7 +27910,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,19 +28020,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>99.05652735499174</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>56.2690140003061</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,13 +28065,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -29278,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="38">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33992,7 +33992,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730077</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>365.284463230715</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262123</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35498,7 +35498,7 @@
         <v>303.4592666181784</v>
       </c>
       <c r="N12" t="n">
-        <v>494.7033691894128</v>
+        <v>326.0451172179153</v>
       </c>
       <c r="O12" t="n">
         <v>669.6856658726877</v>
@@ -35507,7 +35507,7 @@
         <v>201.8442029183526</v>
       </c>
       <c r="Q12" t="n">
-        <v>84.50407356711833</v>
+        <v>253.1623255386159</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.2408119660057</v>
+        <v>338.3374271380795</v>
       </c>
       <c r="K14" t="n">
-        <v>304.8991345136553</v>
+        <v>629.04454708482</v>
       </c>
       <c r="L14" t="n">
-        <v>827.4089892954324</v>
+        <v>833.1900588675867</v>
       </c>
       <c r="M14" t="n">
-        <v>494.3452338912109</v>
+        <v>943.8587673840434</v>
       </c>
       <c r="N14" t="n">
-        <v>944.3515935134567</v>
+        <v>507.0046691014725</v>
       </c>
       <c r="O14" t="n">
-        <v>846.080352479484</v>
+        <v>590.9729343817432</v>
       </c>
       <c r="P14" t="n">
-        <v>684.0550738506345</v>
+        <v>362.2563656791518</v>
       </c>
       <c r="Q14" t="n">
         <v>435.6950947517897</v>
       </c>
       <c r="R14" t="n">
-        <v>43.66656256889638</v>
+        <v>109.3829824418788</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,7 +35729,7 @@
         <v>218.7376728670048</v>
       </c>
       <c r="L15" t="n">
-        <v>340.9102406863973</v>
+        <v>549.4161463544626</v>
       </c>
       <c r="M15" t="n">
         <v>417.3785632769817</v>
@@ -35738,7 +35738,7 @@
         <v>442.9795186818304</v>
       </c>
       <c r="O15" t="n">
-        <v>591.3013846138607</v>
+        <v>382.7954789457955</v>
       </c>
       <c r="P15" t="n">
         <v>287.698769958875</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>338.3374271380795</v>
+        <v>207.9479020045839</v>
       </c>
       <c r="K17" t="n">
         <v>629.04454708482</v>
@@ -35896,13 +35896,13 @@
         <v>507.0046691014725</v>
       </c>
       <c r="O17" t="n">
-        <v>547.2056367431475</v>
+        <v>465.2801712167386</v>
       </c>
       <c r="P17" t="n">
         <v>684.0550738506345</v>
       </c>
       <c r="Q17" t="n">
-        <v>223.380104091885</v>
+        <v>435.6950947517897</v>
       </c>
       <c r="R17" t="n">
         <v>43.66656256889638</v>
@@ -35972,10 +35972,10 @@
         <v>417.3785632769817</v>
       </c>
       <c r="N18" t="n">
-        <v>442.9795186818304</v>
+        <v>651.4854243498957</v>
       </c>
       <c r="O18" t="n">
-        <v>591.3013846138607</v>
+        <v>382.7954789457955</v>
       </c>
       <c r="P18" t="n">
         <v>287.698769958875</v>
@@ -36118,10 +36118,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>304.7146764239872</v>
+        <v>338.3374271380795</v>
       </c>
       <c r="K20" t="n">
-        <v>629.04454708482</v>
+        <v>304.8991345136553</v>
       </c>
       <c r="L20" t="n">
         <v>833.1900588675867</v>
@@ -36130,19 +36130,19 @@
         <v>943.8587673840434</v>
       </c>
       <c r="N20" t="n">
-        <v>944.3515935134567</v>
+        <v>576.042663574896</v>
       </c>
       <c r="O20" t="n">
-        <v>465.2801712167386</v>
+        <v>846.080352479484</v>
       </c>
       <c r="P20" t="n">
         <v>362.2563656791518</v>
       </c>
       <c r="Q20" t="n">
-        <v>223.380104091885</v>
+        <v>435.6950947517897</v>
       </c>
       <c r="R20" t="n">
-        <v>43.66656256889638</v>
+        <v>109.3829824418788</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,7 +36206,7 @@
         <v>340.9102406863973</v>
       </c>
       <c r="M21" t="n">
-        <v>625.8844689450469</v>
+        <v>417.3785632769817</v>
       </c>
       <c r="N21" t="n">
         <v>442.9795186818304</v>
@@ -36215,7 +36215,7 @@
         <v>382.7954789457955</v>
       </c>
       <c r="P21" t="n">
-        <v>287.698769958875</v>
+        <v>496.20467562694</v>
       </c>
       <c r="Q21" t="n">
         <v>141.8955779804438</v>
@@ -36361,25 +36361,25 @@
         <v>629.04454708482</v>
       </c>
       <c r="L23" t="n">
-        <v>833.1900588675867</v>
+        <v>637.084113861108</v>
       </c>
       <c r="M23" t="n">
         <v>943.8587673840434</v>
       </c>
       <c r="N23" t="n">
-        <v>529.9286615366181</v>
+        <v>507.0046691014725</v>
       </c>
       <c r="O23" t="n">
-        <v>846.080352479484</v>
+        <v>465.2801712167386</v>
       </c>
       <c r="P23" t="n">
-        <v>362.2563656791518</v>
+        <v>684.0550738506345</v>
       </c>
       <c r="Q23" t="n">
-        <v>223.380104091885</v>
+        <v>435.6950947517897</v>
       </c>
       <c r="R23" t="n">
-        <v>43.66656256889638</v>
+        <v>109.3829824418788</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36449,13 +36449,13 @@
         <v>442.9795186818304</v>
       </c>
       <c r="O24" t="n">
-        <v>591.3013846138607</v>
+        <v>382.7954789457955</v>
       </c>
       <c r="P24" t="n">
         <v>287.698769958875</v>
       </c>
       <c r="Q24" t="n">
-        <v>141.8955779804438</v>
+        <v>350.4014836485085</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>615.3733902380009</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>568.8760771471024</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36765,13 +36765,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>541.1040399815084</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
-        <v>396.8656113425777</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37002,13 +37002,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>208.2378022852242</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P32" t="n">
-        <v>571.2615849349731</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165874</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O35" t="n">
-        <v>856.0065569760203</v>
+        <v>524.8535742473088</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165874</v>
       </c>
       <c r="K37" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M37" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O37" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P37" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,25 +37543,25 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>618.9892585383429</v>
       </c>
       <c r="M38" t="n">
-        <v>556.3719171467372</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37640,7 +37640,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>286.9249852380206</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M41" t="n">
-        <v>788.3726176681758</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>711.4207145458292</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O44" t="n">
-        <v>556.7058931896898</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,25 +38172,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3693751564862</v>
